--- a/ProcessSimulator/N=100 Graphs.xlsx
+++ b/ProcessSimulator/N=100 Graphs.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\MST\Fall 2020\CS 3800\Project\Simulator\Process-Memory-Mangaement-Simulation\ProcessSimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74134E1E-A8BB-4069-B1F5-4C2DD3883D9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D63F52-67BB-4D4F-B92C-DB8487B3D992}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="5">
   <si>
     <t>Input</t>
   </si>
@@ -37,6 +45,9 @@
   </si>
   <si>
     <t>Runtime</t>
+  </si>
+  <si>
+    <t>AVG</t>
   </si>
 </sst>
 </file>
@@ -2654,307 +2665,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>61102</c:v>
+                  <c:v>40209</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>182219</c:v>
+                  <c:v>11826</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110950</c:v>
+                  <c:v>84149</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>193728</c:v>
+                  <c:v>11846</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>204108</c:v>
+                  <c:v>83369</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>94919</c:v>
+                  <c:v>12169</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>192895</c:v>
+                  <c:v>83935</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128872</c:v>
+                  <c:v>19357</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>101348</c:v>
+                  <c:v>71843</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>163794</c:v>
+                  <c:v>14376</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>119499</c:v>
+                  <c:v>80509</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>122539</c:v>
+                  <c:v>86960</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>193961</c:v>
+                  <c:v>11131</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>123631</c:v>
+                  <c:v>67234</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>118325</c:v>
+                  <c:v>15691</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>117869</c:v>
+                  <c:v>75164</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>94329</c:v>
+                  <c:v>78290</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>209480</c:v>
+                  <c:v>12107</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>116219</c:v>
+                  <c:v>67582</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>98542</c:v>
+                  <c:v>10891</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>125536</c:v>
+                  <c:v>97438</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>230407</c:v>
+                  <c:v>73820</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>67502</c:v>
+                  <c:v>13074</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>110055</c:v>
+                  <c:v>95224</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>122794</c:v>
+                  <c:v>81342</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>184633</c:v>
+                  <c:v>12096</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>112456</c:v>
+                  <c:v>61924</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>113893</c:v>
+                  <c:v>71664</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>113464</c:v>
+                  <c:v>14129</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>96245</c:v>
+                  <c:v>76712</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>116245</c:v>
+                  <c:v>66821</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>191848</c:v>
+                  <c:v>15875</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>125963</c:v>
+                  <c:v>66447</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>115138</c:v>
+                  <c:v>73343</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>136341</c:v>
+                  <c:v>21730</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>83097</c:v>
+                  <c:v>61004</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>116969</c:v>
+                  <c:v>78590</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>195361</c:v>
+                  <c:v>10826</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>109849</c:v>
+                  <c:v>74006</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>132013</c:v>
+                  <c:v>11267</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>195373</c:v>
+                  <c:v>81890</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>210201</c:v>
+                  <c:v>77799</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>180870</c:v>
+                  <c:v>23411</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>209171</c:v>
+                  <c:v>61088</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>125853</c:v>
+                  <c:v>81198</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>194930</c:v>
+                  <c:v>14439</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>107899</c:v>
+                  <c:v>82911</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>192565</c:v>
+                  <c:v>72453</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>117510</c:v>
+                  <c:v>16483</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>113197</c:v>
+                  <c:v>79561</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>199908</c:v>
+                  <c:v>11848</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>115236</c:v>
+                  <c:v>85538</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>88590</c:v>
+                  <c:v>13404</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>205280</c:v>
+                  <c:v>89534</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>147915</c:v>
+                  <c:v>82326</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>110543</c:v>
+                  <c:v>10122</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>115552</c:v>
+                  <c:v>91140</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>145221</c:v>
+                  <c:v>11891</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>215328</c:v>
+                  <c:v>89671</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>192785</c:v>
+                  <c:v>72613</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>110331</c:v>
+                  <c:v>47232</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>177278</c:v>
+                  <c:v>73458</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>113286</c:v>
+                  <c:v>85099</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>119110</c:v>
+                  <c:v>13261</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>190857</c:v>
+                  <c:v>70296</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>91442</c:v>
+                  <c:v>12698</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>84130</c:v>
+                  <c:v>92740</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>113834</c:v>
+                  <c:v>68509</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>107900</c:v>
+                  <c:v>14005</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>193444</c:v>
+                  <c:v>84544</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>83202</c:v>
+                  <c:v>22178</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>102403</c:v>
+                  <c:v>13152</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>112406</c:v>
+                  <c:v>76374</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>83072</c:v>
+                  <c:v>11841</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>112064</c:v>
+                  <c:v>84797</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>98178</c:v>
+                  <c:v>12575</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>91478</c:v>
+                  <c:v>89573</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>125248</c:v>
+                  <c:v>77019</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>116291</c:v>
+                  <c:v>21489</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>107702</c:v>
+                  <c:v>73972</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>96435</c:v>
+                  <c:v>79059</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>122983</c:v>
+                  <c:v>14738</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>102045</c:v>
+                  <c:v>79024</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>126892</c:v>
+                  <c:v>99429</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>104516</c:v>
+                  <c:v>67199</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>113079</c:v>
+                  <c:v>18914</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>113361</c:v>
+                  <c:v>73038</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>116301</c:v>
+                  <c:v>77156</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>114055</c:v>
+                  <c:v>15286</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>211888</c:v>
+                  <c:v>71850</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>109887</c:v>
+                  <c:v>76017</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>110259</c:v>
+                  <c:v>15496</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>104728</c:v>
+                  <c:v>78685</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>110746</c:v>
+                  <c:v>14677</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>96774</c:v>
+                  <c:v>81190</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>102473</c:v>
+                  <c:v>76635</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>131604</c:v>
+                  <c:v>15036</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>105422</c:v>
+                  <c:v>78015</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>113361</c:v>
+                  <c:v>71850</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>116301</c:v>
+                  <c:v>76017</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>114055</c:v>
+                  <c:v>15496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5846,307 +5857,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>77.422300000000007</c:v>
+                  <c:v>78.771000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77.251800000000003</c:v>
+                  <c:v>78.768900000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75.255200000000002</c:v>
+                  <c:v>77.030799999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>73.445099999999996</c:v>
+                  <c:v>71.378900000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>79.007099999999994</c:v>
+                  <c:v>79.7166</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>84.132199999999997</c:v>
+                  <c:v>84.416200000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80.061899999999994</c:v>
+                  <c:v>78.169200000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>66.627399999999994</c:v>
+                  <c:v>66.102800000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>74.651700000000005</c:v>
+                  <c:v>74.118099999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>79.511700000000005</c:v>
+                  <c:v>77.539699999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>80.619500000000002</c:v>
+                  <c:v>82.216300000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>63.196199999999997</c:v>
+                  <c:v>68.588999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>71.392499999999998</c:v>
+                  <c:v>68.251900000000006</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>69.258300000000006</c:v>
+                  <c:v>68.315700000000007</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>83.073499999999996</c:v>
+                  <c:v>80.631900000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>83.593199999999996</c:v>
+                  <c:v>84.560299999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>67.973699999999994</c:v>
+                  <c:v>65.1661</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>79.508899999999997</c:v>
+                  <c:v>81.268299999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>81.483699999999999</c:v>
+                  <c:v>82.493799999999993</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>74.764099999999999</c:v>
+                  <c:v>75.012600000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>84.530699999999996</c:v>
+                  <c:v>86.4679</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>79.579300000000003</c:v>
+                  <c:v>77.427599999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>67.084299999999999</c:v>
+                  <c:v>66.630799999999994</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>73.596299999999999</c:v>
+                  <c:v>73.991699999999994</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>76.946600000000004</c:v>
+                  <c:v>75.810100000000006</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>71.894099999999995</c:v>
+                  <c:v>72.253600000000006</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>79.965900000000005</c:v>
+                  <c:v>82.167699999999996</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>80.545500000000004</c:v>
+                  <c:v>83.666499999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>81.206400000000002</c:v>
+                  <c:v>82.218900000000005</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>68.158299999999997</c:v>
+                  <c:v>68.514399999999995</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>87.937299999999993</c:v>
+                  <c:v>85.837400000000002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>72.193100000000001</c:v>
+                  <c:v>72.6126</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>77.348100000000002</c:v>
+                  <c:v>78.964600000000004</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>69.131100000000004</c:v>
+                  <c:v>70.832300000000004</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>65.522199999999998</c:v>
+                  <c:v>67.627799999999993</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>75.010900000000007</c:v>
+                  <c:v>75.261700000000005</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>73.416200000000003</c:v>
+                  <c:v>73.814499999999995</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>73.697800000000001</c:v>
+                  <c:v>73.177700000000002</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>80.145099999999999</c:v>
+                  <c:v>81.772300000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>67.927899999999994</c:v>
+                  <c:v>68.939499999999995</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>71.237300000000005</c:v>
+                  <c:v>70.180800000000005</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>85.301299999999998</c:v>
+                  <c:v>88.029300000000006</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>78.093400000000003</c:v>
+                  <c:v>78.984099999999998</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>68.829899999999995</c:v>
+                  <c:v>66.627099999999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>82.153899999999993</c:v>
+                  <c:v>81.225099999999998</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>78.410700000000006</c:v>
+                  <c:v>80.168199999999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>77.811000000000007</c:v>
+                  <c:v>73.418400000000005</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>69.589799999999997</c:v>
+                  <c:v>68.192999999999998</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>69.670900000000003</c:v>
+                  <c:v>71.0565</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>73.327600000000004</c:v>
+                  <c:v>68.225300000000004</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>78.339600000000004</c:v>
+                  <c:v>79.019400000000005</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>69.142300000000006</c:v>
+                  <c:v>71.0291</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>72.560599999999994</c:v>
+                  <c:v>69.371899999999997</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>77.964500000000001</c:v>
+                  <c:v>80.953299999999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>69.8446</c:v>
+                  <c:v>71.720399999999998</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>84.866799999999998</c:v>
+                  <c:v>81.127899999999997</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>75.840500000000006</c:v>
+                  <c:v>77.245699999999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>75.639799999999994</c:v>
+                  <c:v>72.881299999999996</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>73.995999999999995</c:v>
+                  <c:v>72.067999999999998</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>76.638199999999998</c:v>
+                  <c:v>75.483699999999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>67.118700000000004</c:v>
+                  <c:v>62.588299999999997</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>84.173699999999997</c:v>
+                  <c:v>83.078400000000002</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>84.536299999999997</c:v>
+                  <c:v>84.944599999999994</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>69.227099999999993</c:v>
+                  <c:v>68.334999999999994</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>69.259299999999996</c:v>
+                  <c:v>68.029700000000005</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>67.375299999999996</c:v>
+                  <c:v>64.766499999999994</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>71.473399999999998</c:v>
+                  <c:v>70.674499999999995</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>74.177000000000007</c:v>
+                  <c:v>72.183999999999997</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>79.939099999999996</c:v>
+                  <c:v>81.17</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>68.381100000000004</c:v>
+                  <c:v>68.333299999999994</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>71.676900000000003</c:v>
+                  <c:v>69.5124</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>76.873800000000003</c:v>
+                  <c:v>75.025700000000001</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>68.996799999999993</c:v>
+                  <c:v>68.268299999999996</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>72.408500000000004</c:v>
+                  <c:v>70.583200000000005</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>83.525499999999994</c:v>
+                  <c:v>85.483400000000003</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>63.033900000000003</c:v>
+                  <c:v>62.270699999999998</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>73.819000000000003</c:v>
+                  <c:v>75.593000000000004</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>77.142799999999994</c:v>
+                  <c:v>78.572199999999995</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>77.558999999999997</c:v>
+                  <c:v>76.105400000000003</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>69.137699999999995</c:v>
+                  <c:v>68.968500000000006</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>70.546099999999996</c:v>
+                  <c:v>69.568399999999997</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>79.522099999999995</c:v>
+                  <c:v>78.598200000000006</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>85.439700000000002</c:v>
+                  <c:v>82.165099999999995</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>72.624300000000005</c:v>
+                  <c:v>70.971999999999994</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>73.472499999999997</c:v>
+                  <c:v>75.063000000000002</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>67.403599999999997</c:v>
+                  <c:v>67.099000000000004</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>73.123000000000005</c:v>
+                  <c:v>72.2714</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>70.050799999999995</c:v>
+                  <c:v>70.752499999999998</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>72.574700000000007</c:v>
+                  <c:v>68.714299999999994</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>70.537800000000004</c:v>
+                  <c:v>72.222099999999998</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>85.201300000000003</c:v>
+                  <c:v>86.633600000000001</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>66.779300000000006</c:v>
+                  <c:v>68.635900000000007</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>80.207099999999997</c:v>
+                  <c:v>79.408199999999994</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>77.287999999999997</c:v>
+                  <c:v>77.171700000000001</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>78.812200000000004</c:v>
+                  <c:v>77.260499999999993</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>81.858900000000006</c:v>
+                  <c:v>78.386600000000001</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>70.584500000000006</c:v>
+                  <c:v>71.318200000000004</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>73.456699999999998</c:v>
+                  <c:v>75.453000000000003</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>73.123000000000005</c:v>
+                  <c:v>72.222099999999998</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>70.050799999999995</c:v>
+                  <c:v>86.633600000000001</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>72.574700000000007</c:v>
+                  <c:v>68.635900000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7572,13 +7583,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7608,13 +7619,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7908,10 +7919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM102"/>
+  <dimension ref="A1:AM103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B109" workbookViewId="0">
-      <selection activeCell="X114" sqref="X114"/>
+    <sheetView tabSelected="1" topLeftCell="AA73" workbookViewId="0">
+      <selection activeCell="AP93" sqref="AP93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8103,13 +8114,13 @@
         <v>8</v>
       </c>
       <c r="AK2">
-        <v>361.95</v>
+        <v>312.93</v>
       </c>
       <c r="AL2">
-        <v>77.422300000000007</v>
+        <v>78.771000000000001</v>
       </c>
       <c r="AM2">
-        <v>61102</v>
+        <v>40209</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
@@ -8201,13 +8212,13 @@
         <v>8</v>
       </c>
       <c r="AK3">
-        <v>358.79</v>
+        <v>324.58</v>
       </c>
       <c r="AL3">
-        <v>77.251800000000003</v>
+        <v>78.768900000000002</v>
       </c>
       <c r="AM3">
-        <v>182219</v>
+        <v>11826</v>
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
@@ -8299,13 +8310,13 @@
         <v>8</v>
       </c>
       <c r="AK4">
-        <v>386.44</v>
+        <v>340.78</v>
       </c>
       <c r="AL4">
-        <v>75.255200000000002</v>
+        <v>77.030799999999999</v>
       </c>
       <c r="AM4">
-        <v>110950</v>
+        <v>84149</v>
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
@@ -8397,13 +8408,13 @@
         <v>8</v>
       </c>
       <c r="AK5">
-        <v>395.11</v>
+        <v>328.92</v>
       </c>
       <c r="AL5">
-        <v>73.445099999999996</v>
+        <v>71.378900000000002</v>
       </c>
       <c r="AM5">
-        <v>193728</v>
+        <v>11846</v>
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
@@ -8495,13 +8506,13 @@
         <v>8</v>
       </c>
       <c r="AK6">
-        <v>341.89</v>
+        <v>294.33</v>
       </c>
       <c r="AL6">
-        <v>79.007099999999994</v>
+        <v>79.7166</v>
       </c>
       <c r="AM6">
-        <v>204108</v>
+        <v>83369</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
@@ -8593,13 +8604,13 @@
         <v>8</v>
       </c>
       <c r="AK7">
-        <v>410.54</v>
+        <v>346.96</v>
       </c>
       <c r="AL7">
-        <v>84.132199999999997</v>
+        <v>84.416200000000003</v>
       </c>
       <c r="AM7">
-        <v>94919</v>
+        <v>12169</v>
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
@@ -8691,13 +8702,13 @@
         <v>8</v>
       </c>
       <c r="AK8">
-        <v>332.37</v>
+        <v>283.05</v>
       </c>
       <c r="AL8">
-        <v>80.061899999999994</v>
+        <v>78.169200000000004</v>
       </c>
       <c r="AM8">
-        <v>192895</v>
+        <v>83935</v>
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
@@ -8789,13 +8800,13 @@
         <v>8</v>
       </c>
       <c r="AK9">
-        <v>399.01</v>
+        <v>346.72</v>
       </c>
       <c r="AL9">
-        <v>66.627399999999994</v>
+        <v>66.102800000000002</v>
       </c>
       <c r="AM9">
-        <v>128872</v>
+        <v>19357</v>
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
@@ -8887,13 +8898,13 @@
         <v>8</v>
       </c>
       <c r="AK10">
-        <v>341.46</v>
+        <v>297.64</v>
       </c>
       <c r="AL10">
-        <v>74.651700000000005</v>
+        <v>74.118099999999998</v>
       </c>
       <c r="AM10">
-        <v>101348</v>
+        <v>71843</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
@@ -8985,13 +8996,13 @@
         <v>8</v>
       </c>
       <c r="AK11">
-        <v>345.38</v>
+        <v>296.52999999999997</v>
       </c>
       <c r="AL11">
-        <v>79.511700000000005</v>
+        <v>77.539699999999996</v>
       </c>
       <c r="AM11">
-        <v>163794</v>
+        <v>14376</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
@@ -9083,13 +9094,13 @@
         <v>8</v>
       </c>
       <c r="AK12">
-        <v>396.54</v>
+        <v>353.04</v>
       </c>
       <c r="AL12">
-        <v>80.619500000000002</v>
+        <v>82.216300000000004</v>
       </c>
       <c r="AM12">
-        <v>119499</v>
+        <v>80509</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
@@ -9181,13 +9192,13 @@
         <v>8</v>
       </c>
       <c r="AK13">
-        <v>389.94</v>
+        <v>356.79</v>
       </c>
       <c r="AL13">
-        <v>63.196199999999997</v>
+        <v>68.588999999999999</v>
       </c>
       <c r="AM13">
-        <v>122539</v>
+        <v>86960</v>
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
@@ -9279,13 +9290,13 @@
         <v>8</v>
       </c>
       <c r="AK14">
-        <v>357.6</v>
+        <v>294.49</v>
       </c>
       <c r="AL14">
-        <v>71.392499999999998</v>
+        <v>68.251900000000006</v>
       </c>
       <c r="AM14">
-        <v>193961</v>
+        <v>11131</v>
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
@@ -9377,13 +9388,13 @@
         <v>8</v>
       </c>
       <c r="AK15">
-        <v>366.52</v>
+        <v>315.35000000000002</v>
       </c>
       <c r="AL15">
-        <v>69.258300000000006</v>
+        <v>68.315700000000007</v>
       </c>
       <c r="AM15">
-        <v>123631</v>
+        <v>67234</v>
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
@@ -9475,13 +9486,13 @@
         <v>8</v>
       </c>
       <c r="AK16">
-        <v>402.95</v>
+        <v>334.42</v>
       </c>
       <c r="AL16">
-        <v>83.073499999999996</v>
+        <v>80.631900000000002</v>
       </c>
       <c r="AM16">
-        <v>118325</v>
+        <v>15691</v>
       </c>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.25">
@@ -9573,13 +9584,13 @@
         <v>8</v>
       </c>
       <c r="AK17">
-        <v>329.72</v>
+        <v>292.45999999999998</v>
       </c>
       <c r="AL17">
-        <v>83.593199999999996</v>
+        <v>84.560299999999998</v>
       </c>
       <c r="AM17">
-        <v>117869</v>
+        <v>75164</v>
       </c>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
@@ -9671,13 +9682,13 @@
         <v>8</v>
       </c>
       <c r="AK18">
-        <v>347.27</v>
+        <v>287.8</v>
       </c>
       <c r="AL18">
-        <v>67.973699999999994</v>
+        <v>65.1661</v>
       </c>
       <c r="AM18">
-        <v>94329</v>
+        <v>78290</v>
       </c>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
@@ -9769,13 +9780,13 @@
         <v>8</v>
       </c>
       <c r="AK19">
-        <v>354.08</v>
+        <v>317.8</v>
       </c>
       <c r="AL19">
-        <v>79.508899999999997</v>
+        <v>81.268299999999996</v>
       </c>
       <c r="AM19">
-        <v>209480</v>
+        <v>12107</v>
       </c>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
@@ -9867,13 +9878,13 @@
         <v>8</v>
       </c>
       <c r="AK20">
-        <v>410.52</v>
+        <v>359.12</v>
       </c>
       <c r="AL20">
-        <v>81.483699999999999</v>
+        <v>82.493799999999993</v>
       </c>
       <c r="AM20">
-        <v>116219</v>
+        <v>67582</v>
       </c>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.25">
@@ -9965,13 +9976,13 @@
         <v>8</v>
       </c>
       <c r="AK21">
-        <v>350.26</v>
+        <v>296.39</v>
       </c>
       <c r="AL21">
-        <v>74.764099999999999</v>
+        <v>75.012600000000006</v>
       </c>
       <c r="AM21">
-        <v>98542</v>
+        <v>10891</v>
       </c>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.25">
@@ -10063,13 +10074,13 @@
         <v>8</v>
       </c>
       <c r="AK22">
-        <v>414.65</v>
+        <v>364.93</v>
       </c>
       <c r="AL22">
-        <v>84.530699999999996</v>
+        <v>86.4679</v>
       </c>
       <c r="AM22">
-        <v>125536</v>
+        <v>97438</v>
       </c>
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.25">
@@ -10161,13 +10172,13 @@
         <v>8</v>
       </c>
       <c r="AK23">
-        <v>364.58</v>
+        <v>297.86</v>
       </c>
       <c r="AL23">
-        <v>79.579300000000003</v>
+        <v>77.427599999999998</v>
       </c>
       <c r="AM23">
-        <v>230407</v>
+        <v>73820</v>
       </c>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.25">
@@ -10259,13 +10270,13 @@
         <v>8</v>
       </c>
       <c r="AK24">
-        <v>339.43</v>
+        <v>283.12</v>
       </c>
       <c r="AL24">
-        <v>67.084299999999999</v>
+        <v>66.630799999999994</v>
       </c>
       <c r="AM24">
-        <v>67502</v>
+        <v>13074</v>
       </c>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.25">
@@ -10357,13 +10368,13 @@
         <v>8</v>
       </c>
       <c r="AK25">
-        <v>361.12</v>
+        <v>314.42</v>
       </c>
       <c r="AL25">
-        <v>73.596299999999999</v>
+        <v>73.991699999999994</v>
       </c>
       <c r="AM25">
-        <v>110055</v>
+        <v>95224</v>
       </c>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.25">
@@ -10455,13 +10466,13 @@
         <v>8</v>
       </c>
       <c r="AK26">
-        <v>353.06</v>
+        <v>298.43</v>
       </c>
       <c r="AL26">
-        <v>76.946600000000004</v>
+        <v>75.810100000000006</v>
       </c>
       <c r="AM26">
-        <v>122794</v>
+        <v>81342</v>
       </c>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.25">
@@ -10553,13 +10564,13 @@
         <v>8</v>
       </c>
       <c r="AK27">
-        <v>365.86</v>
+        <v>313.32</v>
       </c>
       <c r="AL27">
-        <v>71.894099999999995</v>
+        <v>72.253600000000006</v>
       </c>
       <c r="AM27">
-        <v>184633</v>
+        <v>12096</v>
       </c>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.25">
@@ -10651,13 +10662,13 @@
         <v>8</v>
       </c>
       <c r="AK28">
-        <v>356.62</v>
+        <v>314.39999999999998</v>
       </c>
       <c r="AL28">
-        <v>79.965900000000005</v>
+        <v>82.167699999999996</v>
       </c>
       <c r="AM28">
-        <v>112456</v>
+        <v>61924</v>
       </c>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.25">
@@ -10749,13 +10760,13 @@
         <v>8</v>
       </c>
       <c r="AK29">
-        <v>393.81</v>
+        <v>365.91</v>
       </c>
       <c r="AL29">
-        <v>80.545500000000004</v>
+        <v>83.666499999999999</v>
       </c>
       <c r="AM29">
-        <v>113893</v>
+        <v>71664</v>
       </c>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
@@ -10847,13 +10858,13 @@
         <v>8</v>
       </c>
       <c r="AK30">
-        <v>371.47</v>
+        <v>328.93</v>
       </c>
       <c r="AL30">
-        <v>81.206400000000002</v>
+        <v>82.218900000000005</v>
       </c>
       <c r="AM30">
-        <v>113464</v>
+        <v>14129</v>
       </c>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.25">
@@ -10945,13 +10956,13 @@
         <v>8</v>
       </c>
       <c r="AK31">
-        <v>351.73</v>
+        <v>306.39999999999998</v>
       </c>
       <c r="AL31">
-        <v>68.158299999999997</v>
+        <v>68.514399999999995</v>
       </c>
       <c r="AM31">
-        <v>96245</v>
+        <v>76712</v>
       </c>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.25">
@@ -11043,13 +11054,13 @@
         <v>8</v>
       </c>
       <c r="AK32">
-        <v>359.81</v>
+        <v>310.41000000000003</v>
       </c>
       <c r="AL32">
-        <v>87.937299999999993</v>
+        <v>85.837400000000002</v>
       </c>
       <c r="AM32">
-        <v>116245</v>
+        <v>66821</v>
       </c>
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.25">
@@ -11141,13 +11152,13 @@
         <v>8</v>
       </c>
       <c r="AK33">
-        <v>384.7</v>
+        <v>345.53</v>
       </c>
       <c r="AL33">
-        <v>72.193100000000001</v>
+        <v>72.6126</v>
       </c>
       <c r="AM33">
-        <v>191848</v>
+        <v>15875</v>
       </c>
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.25">
@@ -11239,13 +11250,13 @@
         <v>8</v>
       </c>
       <c r="AK34">
-        <v>341.47</v>
+        <v>300.07</v>
       </c>
       <c r="AL34">
-        <v>77.348100000000002</v>
+        <v>78.964600000000004</v>
       </c>
       <c r="AM34">
-        <v>125963</v>
+        <v>66447</v>
       </c>
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.25">
@@ -11337,13 +11348,13 @@
         <v>8</v>
       </c>
       <c r="AK35">
-        <v>290.95999999999998</v>
+        <v>261.58999999999997</v>
       </c>
       <c r="AL35">
-        <v>69.131100000000004</v>
+        <v>70.832300000000004</v>
       </c>
       <c r="AM35">
-        <v>115138</v>
+        <v>73343</v>
       </c>
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.25">
@@ -11435,13 +11446,13 @@
         <v>8</v>
       </c>
       <c r="AK36">
-        <v>341.67</v>
+        <v>310.74</v>
       </c>
       <c r="AL36">
-        <v>65.522199999999998</v>
+        <v>67.627799999999993</v>
       </c>
       <c r="AM36">
-        <v>136341</v>
+        <v>21730</v>
       </c>
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.25">
@@ -11533,13 +11544,13 @@
         <v>8</v>
       </c>
       <c r="AK37">
-        <v>383.4</v>
+        <v>341.82</v>
       </c>
       <c r="AL37">
-        <v>75.010900000000007</v>
+        <v>75.261700000000005</v>
       </c>
       <c r="AM37">
-        <v>83097</v>
+        <v>61004</v>
       </c>
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.25">
@@ -11631,13 +11642,13 @@
         <v>8</v>
       </c>
       <c r="AK38">
-        <v>351.16</v>
+        <v>314.48</v>
       </c>
       <c r="AL38">
-        <v>73.416200000000003</v>
+        <v>73.814499999999995</v>
       </c>
       <c r="AM38">
-        <v>116969</v>
+        <v>78590</v>
       </c>
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.25">
@@ -11729,13 +11740,13 @@
         <v>8</v>
       </c>
       <c r="AK39">
-        <v>351.64</v>
+        <v>311.14</v>
       </c>
       <c r="AL39">
-        <v>73.697800000000001</v>
+        <v>73.177700000000002</v>
       </c>
       <c r="AM39">
-        <v>195361</v>
+        <v>10826</v>
       </c>
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.25">
@@ -11827,13 +11838,13 @@
         <v>8</v>
       </c>
       <c r="AK40">
-        <v>391.97</v>
+        <v>347.41</v>
       </c>
       <c r="AL40">
-        <v>80.145099999999999</v>
+        <v>81.772300000000001</v>
       </c>
       <c r="AM40">
-        <v>109849</v>
+        <v>74006</v>
       </c>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.25">
@@ -11925,13 +11936,13 @@
         <v>8</v>
       </c>
       <c r="AK41">
-        <v>336.07</v>
+        <v>278.39999999999998</v>
       </c>
       <c r="AL41">
-        <v>67.927899999999994</v>
+        <v>68.939499999999995</v>
       </c>
       <c r="AM41">
-        <v>132013</v>
+        <v>11267</v>
       </c>
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.25">
@@ -12023,13 +12034,13 @@
         <v>8</v>
       </c>
       <c r="AK42">
-        <v>375.56</v>
+        <v>313.08999999999997</v>
       </c>
       <c r="AL42">
-        <v>71.237300000000005</v>
+        <v>70.180800000000005</v>
       </c>
       <c r="AM42">
-        <v>195373</v>
+        <v>81890</v>
       </c>
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.25">
@@ -12121,13 +12132,13 @@
         <v>8</v>
       </c>
       <c r="AK43">
-        <v>410.14</v>
+        <v>355.72</v>
       </c>
       <c r="AL43">
-        <v>85.301299999999998</v>
+        <v>88.029300000000006</v>
       </c>
       <c r="AM43">
-        <v>210201</v>
+        <v>77799</v>
       </c>
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.25">
@@ -12219,13 +12230,13 @@
         <v>8</v>
       </c>
       <c r="AK44">
-        <v>379.7</v>
+        <v>314.07</v>
       </c>
       <c r="AL44">
-        <v>78.093400000000003</v>
+        <v>78.984099999999998</v>
       </c>
       <c r="AM44">
-        <v>180870</v>
+        <v>23411</v>
       </c>
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.25">
@@ -12317,13 +12328,13 @@
         <v>8</v>
       </c>
       <c r="AK45">
-        <v>412.94</v>
+        <v>343.7</v>
       </c>
       <c r="AL45">
-        <v>68.829899999999995</v>
+        <v>66.627099999999999</v>
       </c>
       <c r="AM45">
-        <v>209171</v>
+        <v>61088</v>
       </c>
     </row>
     <row r="46" spans="1:39" x14ac:dyDescent="0.25">
@@ -12415,13 +12426,13 @@
         <v>8</v>
       </c>
       <c r="AK46">
-        <v>361.91</v>
+        <v>295.08999999999997</v>
       </c>
       <c r="AL46">
-        <v>82.153899999999993</v>
+        <v>81.225099999999998</v>
       </c>
       <c r="AM46">
-        <v>125853</v>
+        <v>81198</v>
       </c>
     </row>
     <row r="47" spans="1:39" x14ac:dyDescent="0.25">
@@ -12513,13 +12524,13 @@
         <v>8</v>
       </c>
       <c r="AK47">
-        <v>347.85</v>
+        <v>311.62</v>
       </c>
       <c r="AL47">
-        <v>78.410700000000006</v>
+        <v>80.168199999999999</v>
       </c>
       <c r="AM47">
-        <v>194930</v>
+        <v>14439</v>
       </c>
     </row>
     <row r="48" spans="1:39" x14ac:dyDescent="0.25">
@@ -12611,13 +12622,13 @@
         <v>8</v>
       </c>
       <c r="AK48">
-        <v>372.46</v>
+        <v>304.85000000000002</v>
       </c>
       <c r="AL48">
-        <v>77.811000000000007</v>
+        <v>73.418400000000005</v>
       </c>
       <c r="AM48">
-        <v>107899</v>
+        <v>82911</v>
       </c>
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.25">
@@ -12709,13 +12720,13 @@
         <v>8</v>
       </c>
       <c r="AK49">
-        <v>400.93</v>
+        <v>341.36</v>
       </c>
       <c r="AL49">
-        <v>69.589799999999997</v>
+        <v>68.192999999999998</v>
       </c>
       <c r="AM49">
-        <v>192565</v>
+        <v>72453</v>
       </c>
     </row>
     <row r="50" spans="1:39" x14ac:dyDescent="0.25">
@@ -12807,13 +12818,13 @@
         <v>8</v>
       </c>
       <c r="AK50">
-        <v>404.67</v>
+        <v>368.74</v>
       </c>
       <c r="AL50">
-        <v>69.670900000000003</v>
+        <v>71.0565</v>
       </c>
       <c r="AM50">
-        <v>117510</v>
+        <v>16483</v>
       </c>
     </row>
     <row r="51" spans="1:39" x14ac:dyDescent="0.25">
@@ -12905,13 +12916,13 @@
         <v>8</v>
       </c>
       <c r="AK51">
-        <v>380.2</v>
+        <v>302.39</v>
       </c>
       <c r="AL51">
-        <v>73.327600000000004</v>
+        <v>68.225300000000004</v>
       </c>
       <c r="AM51">
-        <v>113197</v>
+        <v>79561</v>
       </c>
     </row>
     <row r="52" spans="1:39" x14ac:dyDescent="0.25">
@@ -13003,13 +13014,13 @@
         <v>8</v>
       </c>
       <c r="AK52">
-        <v>391.36</v>
+        <v>339.17</v>
       </c>
       <c r="AL52">
-        <v>78.339600000000004</v>
+        <v>79.019400000000005</v>
       </c>
       <c r="AM52">
-        <v>199908</v>
+        <v>11848</v>
       </c>
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.25">
@@ -13101,13 +13112,13 @@
         <v>8</v>
       </c>
       <c r="AK53">
-        <v>322.58999999999997</v>
+        <v>290.44</v>
       </c>
       <c r="AL53">
-        <v>69.142300000000006</v>
+        <v>71.0291</v>
       </c>
       <c r="AM53">
-        <v>115236</v>
+        <v>85538</v>
       </c>
     </row>
     <row r="54" spans="1:39" x14ac:dyDescent="0.25">
@@ -13199,13 +13210,13 @@
         <v>8</v>
       </c>
       <c r="AK54">
-        <v>352.37</v>
+        <v>290.82</v>
       </c>
       <c r="AL54">
-        <v>72.560599999999994</v>
+        <v>69.371899999999997</v>
       </c>
       <c r="AM54">
-        <v>88590</v>
+        <v>13404</v>
       </c>
     </row>
     <row r="55" spans="1:39" x14ac:dyDescent="0.25">
@@ -13297,13 +13308,13 @@
         <v>8</v>
       </c>
       <c r="AK55">
-        <v>369.59</v>
+        <v>332.95</v>
       </c>
       <c r="AL55">
-        <v>77.964500000000001</v>
+        <v>80.953299999999999</v>
       </c>
       <c r="AM55">
-        <v>205280</v>
+        <v>89534</v>
       </c>
     </row>
     <row r="56" spans="1:39" x14ac:dyDescent="0.25">
@@ -13395,13 +13406,13 @@
         <v>8</v>
       </c>
       <c r="AK56">
-        <v>382.93</v>
+        <v>347.29</v>
       </c>
       <c r="AL56">
-        <v>69.8446</v>
+        <v>71.720399999999998</v>
       </c>
       <c r="AM56">
-        <v>147915</v>
+        <v>82326</v>
       </c>
     </row>
     <row r="57" spans="1:39" x14ac:dyDescent="0.25">
@@ -13493,13 +13504,13 @@
         <v>8</v>
       </c>
       <c r="AK57">
-        <v>404.3</v>
+        <v>328.83</v>
       </c>
       <c r="AL57">
-        <v>84.866799999999998</v>
+        <v>81.127899999999997</v>
       </c>
       <c r="AM57">
-        <v>110543</v>
+        <v>10122</v>
       </c>
     </row>
     <row r="58" spans="1:39" x14ac:dyDescent="0.25">
@@ -13591,13 +13602,13 @@
         <v>8</v>
       </c>
       <c r="AK58">
-        <v>363.93</v>
+        <v>323.83</v>
       </c>
       <c r="AL58">
-        <v>75.840500000000006</v>
+        <v>77.245699999999999</v>
       </c>
       <c r="AM58">
-        <v>115552</v>
+        <v>91140</v>
       </c>
     </row>
     <row r="59" spans="1:39" x14ac:dyDescent="0.25">
@@ -13689,13 +13700,13 @@
         <v>8</v>
       </c>
       <c r="AK59">
-        <v>387.15</v>
+        <v>320.86</v>
       </c>
       <c r="AL59">
-        <v>75.639799999999994</v>
+        <v>72.881299999999996</v>
       </c>
       <c r="AM59">
-        <v>145221</v>
+        <v>11891</v>
       </c>
     </row>
     <row r="60" spans="1:39" x14ac:dyDescent="0.25">
@@ -13787,13 +13798,13 @@
         <v>8</v>
       </c>
       <c r="AK60">
-        <v>384.78</v>
+        <v>333.23</v>
       </c>
       <c r="AL60">
-        <v>73.995999999999995</v>
+        <v>72.067999999999998</v>
       </c>
       <c r="AM60">
-        <v>215328</v>
+        <v>89671</v>
       </c>
     </row>
     <row r="61" spans="1:39" x14ac:dyDescent="0.25">
@@ -13885,13 +13896,13 @@
         <v>8</v>
       </c>
       <c r="AK61">
-        <v>338.36</v>
+        <v>287.61</v>
       </c>
       <c r="AL61">
-        <v>76.638199999999998</v>
+        <v>75.483699999999999</v>
       </c>
       <c r="AM61">
-        <v>192785</v>
+        <v>72613</v>
       </c>
     </row>
     <row r="62" spans="1:39" x14ac:dyDescent="0.25">
@@ -13983,13 +13994,13 @@
         <v>8</v>
       </c>
       <c r="AK62">
-        <v>403.11</v>
+        <v>340.35</v>
       </c>
       <c r="AL62">
-        <v>67.118700000000004</v>
+        <v>62.588299999999997</v>
       </c>
       <c r="AM62">
-        <v>110331</v>
+        <v>47232</v>
       </c>
     </row>
     <row r="63" spans="1:39" x14ac:dyDescent="0.25">
@@ -14081,13 +14092,13 @@
         <v>8</v>
       </c>
       <c r="AK63">
-        <v>434.42</v>
+        <v>370.56</v>
       </c>
       <c r="AL63">
-        <v>84.173699999999997</v>
+        <v>83.078400000000002</v>
       </c>
       <c r="AM63">
-        <v>177278</v>
+        <v>73458</v>
       </c>
     </row>
     <row r="64" spans="1:39" x14ac:dyDescent="0.25">
@@ -14179,13 +14190,13 @@
         <v>8</v>
       </c>
       <c r="AK64">
-        <v>382.18</v>
+        <v>342.4</v>
       </c>
       <c r="AL64">
-        <v>84.536299999999997</v>
+        <v>84.944599999999994</v>
       </c>
       <c r="AM64">
-        <v>113286</v>
+        <v>85099</v>
       </c>
     </row>
     <row r="65" spans="1:39" x14ac:dyDescent="0.25">
@@ -14277,13 +14288,13 @@
         <v>8</v>
       </c>
       <c r="AK65">
-        <v>324.43</v>
+        <v>271.97000000000003</v>
       </c>
       <c r="AL65">
-        <v>69.227099999999993</v>
+        <v>68.334999999999994</v>
       </c>
       <c r="AM65">
-        <v>119110</v>
+        <v>13261</v>
       </c>
     </row>
     <row r="66" spans="1:39" x14ac:dyDescent="0.25">
@@ -14375,13 +14386,13 @@
         <v>8</v>
       </c>
       <c r="AK66">
-        <v>353.02</v>
+        <v>299.33999999999997</v>
       </c>
       <c r="AL66">
-        <v>69.259299999999996</v>
+        <v>68.029700000000005</v>
       </c>
       <c r="AM66">
-        <v>190857</v>
+        <v>70296</v>
       </c>
     </row>
     <row r="67" spans="1:39" x14ac:dyDescent="0.25">
@@ -14473,13 +14484,13 @@
         <v>8</v>
       </c>
       <c r="AK67">
-        <v>368.09</v>
+        <v>313.20999999999998</v>
       </c>
       <c r="AL67">
-        <v>67.375299999999996</v>
+        <v>64.766499999999994</v>
       </c>
       <c r="AM67">
-        <v>91442</v>
+        <v>12698</v>
       </c>
     </row>
     <row r="68" spans="1:39" x14ac:dyDescent="0.25">
@@ -14571,13 +14582,13 @@
         <v>8</v>
       </c>
       <c r="AK68">
-        <v>394.77</v>
+        <v>348.81</v>
       </c>
       <c r="AL68">
-        <v>71.473399999999998</v>
+        <v>70.674499999999995</v>
       </c>
       <c r="AM68">
-        <v>84130</v>
+        <v>92740</v>
       </c>
     </row>
     <row r="69" spans="1:39" x14ac:dyDescent="0.25">
@@ -14669,13 +14680,13 @@
         <v>8</v>
       </c>
       <c r="AK69">
-        <v>340.08</v>
+        <v>295.17</v>
       </c>
       <c r="AL69">
-        <v>74.177000000000007</v>
+        <v>72.183999999999997</v>
       </c>
       <c r="AM69">
-        <v>113834</v>
+        <v>68509</v>
       </c>
     </row>
     <row r="70" spans="1:39" x14ac:dyDescent="0.25">
@@ -14767,13 +14778,13 @@
         <v>8</v>
       </c>
       <c r="AK70">
-        <v>343.69</v>
+        <v>299.98</v>
       </c>
       <c r="AL70">
-        <v>79.939099999999996</v>
+        <v>81.17</v>
       </c>
       <c r="AM70">
-        <v>107900</v>
+        <v>14005</v>
       </c>
     </row>
     <row r="71" spans="1:39" x14ac:dyDescent="0.25">
@@ -14865,13 +14876,13 @@
         <v>8</v>
       </c>
       <c r="AK71">
-        <v>353.49</v>
+        <v>313.26</v>
       </c>
       <c r="AL71">
-        <v>68.381100000000004</v>
+        <v>68.333299999999994</v>
       </c>
       <c r="AM71">
-        <v>193444</v>
+        <v>84544</v>
       </c>
     </row>
     <row r="72" spans="1:39" x14ac:dyDescent="0.25">
@@ -14963,13 +14974,13 @@
         <v>8</v>
       </c>
       <c r="AK72">
-        <v>344.5</v>
+        <v>296.52999999999997</v>
       </c>
       <c r="AL72">
-        <v>71.676900000000003</v>
+        <v>69.5124</v>
       </c>
       <c r="AM72">
-        <v>83202</v>
+        <v>22178</v>
       </c>
     </row>
     <row r="73" spans="1:39" x14ac:dyDescent="0.25">
@@ -15061,13 +15072,13 @@
         <v>8</v>
       </c>
       <c r="AK73">
-        <v>340.68</v>
+        <v>304.3</v>
       </c>
       <c r="AL73">
-        <v>76.873800000000003</v>
+        <v>75.025700000000001</v>
       </c>
       <c r="AM73">
-        <v>102403</v>
+        <v>13152</v>
       </c>
     </row>
     <row r="74" spans="1:39" x14ac:dyDescent="0.25">
@@ -15159,13 +15170,13 @@
         <v>8</v>
       </c>
       <c r="AK74">
-        <v>365.73</v>
+        <v>319.56</v>
       </c>
       <c r="AL74">
-        <v>68.996799999999993</v>
+        <v>68.268299999999996</v>
       </c>
       <c r="AM74">
-        <v>112406</v>
+        <v>76374</v>
       </c>
     </row>
     <row r="75" spans="1:39" x14ac:dyDescent="0.25">
@@ -15257,13 +15268,13 @@
         <v>8</v>
       </c>
       <c r="AK75">
-        <v>382.75</v>
+        <v>327.27999999999997</v>
       </c>
       <c r="AL75">
-        <v>72.408500000000004</v>
+        <v>70.583200000000005</v>
       </c>
       <c r="AM75">
-        <v>83072</v>
+        <v>11841</v>
       </c>
     </row>
     <row r="76" spans="1:39" x14ac:dyDescent="0.25">
@@ -15355,13 +15366,13 @@
         <v>8</v>
       </c>
       <c r="AK76">
-        <v>364.85</v>
+        <v>324.58999999999997</v>
       </c>
       <c r="AL76">
-        <v>83.525499999999994</v>
+        <v>85.483400000000003</v>
       </c>
       <c r="AM76">
-        <v>112064</v>
+        <v>84797</v>
       </c>
     </row>
     <row r="77" spans="1:39" x14ac:dyDescent="0.25">
@@ -15453,13 +15464,13 @@
         <v>8</v>
       </c>
       <c r="AK77">
-        <v>357.24</v>
+        <v>306.44</v>
       </c>
       <c r="AL77">
-        <v>63.033900000000003</v>
+        <v>62.270699999999998</v>
       </c>
       <c r="AM77">
-        <v>98178</v>
+        <v>12575</v>
       </c>
     </row>
     <row r="78" spans="1:39" x14ac:dyDescent="0.25">
@@ -15551,13 +15562,13 @@
         <v>8</v>
       </c>
       <c r="AK78">
-        <v>372.35</v>
+        <v>331.43</v>
       </c>
       <c r="AL78">
-        <v>73.819000000000003</v>
+        <v>75.593000000000004</v>
       </c>
       <c r="AM78">
-        <v>91478</v>
+        <v>89573</v>
       </c>
     </row>
     <row r="79" spans="1:39" x14ac:dyDescent="0.25">
@@ -15649,13 +15660,13 @@
         <v>8</v>
       </c>
       <c r="AK79">
-        <v>353.17</v>
+        <v>312.98</v>
       </c>
       <c r="AL79">
-        <v>77.142799999999994</v>
+        <v>78.572199999999995</v>
       </c>
       <c r="AM79">
-        <v>125248</v>
+        <v>77019</v>
       </c>
     </row>
     <row r="80" spans="1:39" x14ac:dyDescent="0.25">
@@ -15747,13 +15758,13 @@
         <v>8</v>
       </c>
       <c r="AK80">
-        <v>415.65</v>
+        <v>355.78</v>
       </c>
       <c r="AL80">
-        <v>77.558999999999997</v>
+        <v>76.105400000000003</v>
       </c>
       <c r="AM80">
-        <v>116291</v>
+        <v>21489</v>
       </c>
     </row>
     <row r="81" spans="1:39" x14ac:dyDescent="0.25">
@@ -15845,13 +15856,13 @@
         <v>8</v>
       </c>
       <c r="AK81">
-        <v>314.73</v>
+        <v>274.97000000000003</v>
       </c>
       <c r="AL81">
-        <v>69.137699999999995</v>
+        <v>68.968500000000006</v>
       </c>
       <c r="AM81">
-        <v>107702</v>
+        <v>73972</v>
       </c>
     </row>
     <row r="82" spans="1:39" x14ac:dyDescent="0.25">
@@ -15943,13 +15954,13 @@
         <v>8</v>
       </c>
       <c r="AK82">
-        <v>333.12</v>
+        <v>291.81</v>
       </c>
       <c r="AL82">
-        <v>70.546099999999996</v>
+        <v>69.568399999999997</v>
       </c>
       <c r="AM82">
-        <v>96435</v>
+        <v>79059</v>
       </c>
     </row>
     <row r="83" spans="1:39" x14ac:dyDescent="0.25">
@@ -16041,13 +16052,13 @@
         <v>8</v>
       </c>
       <c r="AK83">
-        <v>375.72</v>
+        <v>327.12</v>
       </c>
       <c r="AL83">
-        <v>79.522099999999995</v>
+        <v>78.598200000000006</v>
       </c>
       <c r="AM83">
-        <v>122983</v>
+        <v>14738</v>
       </c>
     </row>
     <row r="84" spans="1:39" x14ac:dyDescent="0.25">
@@ -16139,13 +16150,13 @@
         <v>8</v>
       </c>
       <c r="AK84">
-        <v>348.76</v>
+        <v>292.43</v>
       </c>
       <c r="AL84">
-        <v>85.439700000000002</v>
+        <v>82.165099999999995</v>
       </c>
       <c r="AM84">
-        <v>102045</v>
+        <v>79024</v>
       </c>
     </row>
     <row r="85" spans="1:39" x14ac:dyDescent="0.25">
@@ -16237,13 +16248,13 @@
         <v>8</v>
       </c>
       <c r="AK85">
-        <v>373.25</v>
+        <v>321.87</v>
       </c>
       <c r="AL85">
-        <v>72.624300000000005</v>
+        <v>70.971999999999994</v>
       </c>
       <c r="AM85">
-        <v>126892</v>
+        <v>99429</v>
       </c>
     </row>
     <row r="86" spans="1:39" x14ac:dyDescent="0.25">
@@ -16335,13 +16346,13 @@
         <v>8</v>
       </c>
       <c r="AK86">
-        <v>383.67</v>
+        <v>346.12</v>
       </c>
       <c r="AL86">
-        <v>73.472499999999997</v>
+        <v>75.063000000000002</v>
       </c>
       <c r="AM86">
-        <v>104516</v>
+        <v>67199</v>
       </c>
     </row>
     <row r="87" spans="1:39" x14ac:dyDescent="0.25">
@@ -16433,13 +16444,13 @@
         <v>8</v>
       </c>
       <c r="AK87">
-        <v>376.82</v>
+        <v>337.66</v>
       </c>
       <c r="AL87">
-        <v>67.403599999999997</v>
+        <v>67.099000000000004</v>
       </c>
       <c r="AM87">
-        <v>113079</v>
+        <v>18914</v>
       </c>
     </row>
     <row r="88" spans="1:39" x14ac:dyDescent="0.25">
@@ -16531,13 +16542,13 @@
         <v>8</v>
       </c>
       <c r="AK88">
-        <v>377.26</v>
+        <v>328.66</v>
       </c>
       <c r="AL88">
-        <v>73.123000000000005</v>
+        <v>72.2714</v>
       </c>
       <c r="AM88">
-        <v>113361</v>
+        <v>73038</v>
       </c>
     </row>
     <row r="89" spans="1:39" x14ac:dyDescent="0.25">
@@ -16629,13 +16640,13 @@
         <v>8</v>
       </c>
       <c r="AK89">
-        <v>343.01</v>
+        <v>298.41000000000003</v>
       </c>
       <c r="AL89">
-        <v>70.050799999999995</v>
+        <v>70.752499999999998</v>
       </c>
       <c r="AM89">
-        <v>116301</v>
+        <v>77156</v>
       </c>
     </row>
     <row r="90" spans="1:39" x14ac:dyDescent="0.25">
@@ -16727,13 +16738,13 @@
         <v>8</v>
       </c>
       <c r="AK90">
-        <v>377.82</v>
+        <v>315.3</v>
       </c>
       <c r="AL90">
-        <v>72.574700000000007</v>
+        <v>68.714299999999994</v>
       </c>
       <c r="AM90">
-        <v>114055</v>
+        <v>15286</v>
       </c>
     </row>
     <row r="91" spans="1:39" x14ac:dyDescent="0.25">
@@ -16825,13 +16836,13 @@
         <v>8</v>
       </c>
       <c r="AK91">
-        <v>435.46</v>
+        <v>394.63</v>
       </c>
       <c r="AL91">
-        <v>70.537800000000004</v>
+        <v>72.222099999999998</v>
       </c>
       <c r="AM91">
-        <v>211888</v>
+        <v>71850</v>
       </c>
     </row>
     <row r="92" spans="1:39" x14ac:dyDescent="0.25">
@@ -16923,13 +16934,13 @@
         <v>8</v>
       </c>
       <c r="AK92">
-        <v>328.16</v>
+        <v>295.64</v>
       </c>
       <c r="AL92">
-        <v>85.201300000000003</v>
+        <v>86.633600000000001</v>
       </c>
       <c r="AM92">
-        <v>109887</v>
+        <v>76017</v>
       </c>
     </row>
     <row r="93" spans="1:39" x14ac:dyDescent="0.25">
@@ -17021,13 +17032,13 @@
         <v>8</v>
       </c>
       <c r="AK93">
-        <v>373.51</v>
+        <v>342.4</v>
       </c>
       <c r="AL93">
-        <v>66.779300000000006</v>
+        <v>68.635900000000007</v>
       </c>
       <c r="AM93">
-        <v>110259</v>
+        <v>15496</v>
       </c>
     </row>
     <row r="94" spans="1:39" x14ac:dyDescent="0.25">
@@ -17119,13 +17130,13 @@
         <v>8</v>
       </c>
       <c r="AK94">
-        <v>408.75</v>
+        <v>360.82</v>
       </c>
       <c r="AL94">
-        <v>80.207099999999997</v>
+        <v>79.408199999999994</v>
       </c>
       <c r="AM94">
-        <v>104728</v>
+        <v>78685</v>
       </c>
     </row>
     <row r="95" spans="1:39" x14ac:dyDescent="0.25">
@@ -17217,13 +17228,13 @@
         <v>8</v>
       </c>
       <c r="AK95">
-        <v>367.85</v>
+        <v>322.81</v>
       </c>
       <c r="AL95">
-        <v>77.287999999999997</v>
+        <v>77.171700000000001</v>
       </c>
       <c r="AM95">
-        <v>110746</v>
+        <v>14677</v>
       </c>
     </row>
     <row r="96" spans="1:39" x14ac:dyDescent="0.25">
@@ -17315,13 +17326,13 @@
         <v>8</v>
       </c>
       <c r="AK96">
-        <v>358</v>
+        <v>310.52999999999997</v>
       </c>
       <c r="AL96">
-        <v>78.812200000000004</v>
+        <v>77.260499999999993</v>
       </c>
       <c r="AM96">
-        <v>96774</v>
+        <v>81190</v>
       </c>
     </row>
     <row r="97" spans="1:39" x14ac:dyDescent="0.25">
@@ -17413,13 +17424,13 @@
         <v>8</v>
       </c>
       <c r="AK97">
-        <v>352.85</v>
+        <v>303.02</v>
       </c>
       <c r="AL97">
-        <v>81.858900000000006</v>
+        <v>78.386600000000001</v>
       </c>
       <c r="AM97">
-        <v>102473</v>
+        <v>76635</v>
       </c>
     </row>
     <row r="98" spans="1:39" x14ac:dyDescent="0.25">
@@ -17511,13 +17522,13 @@
         <v>8</v>
       </c>
       <c r="AK98">
-        <v>356.15</v>
+        <v>319.68</v>
       </c>
       <c r="AL98">
-        <v>70.584500000000006</v>
+        <v>71.318200000000004</v>
       </c>
       <c r="AM98">
-        <v>131604</v>
+        <v>15036</v>
       </c>
     </row>
     <row r="99" spans="1:39" x14ac:dyDescent="0.25">
@@ -17609,13 +17620,13 @@
         <v>8</v>
       </c>
       <c r="AK99">
-        <v>385.5</v>
+        <v>348.52</v>
       </c>
       <c r="AL99">
-        <v>73.456699999999998</v>
+        <v>75.453000000000003</v>
       </c>
       <c r="AM99">
-        <v>105422</v>
+        <v>78015</v>
       </c>
     </row>
     <row r="100" spans="1:39" x14ac:dyDescent="0.25">
@@ -17707,13 +17718,13 @@
         <v>8</v>
       </c>
       <c r="AK100">
-        <v>377.26</v>
+        <v>394.63</v>
       </c>
       <c r="AL100">
-        <v>73.123000000000005</v>
+        <v>72.222099999999998</v>
       </c>
       <c r="AM100">
-        <v>113361</v>
+        <v>71850</v>
       </c>
     </row>
     <row r="101" spans="1:39" x14ac:dyDescent="0.25">
@@ -17805,13 +17816,13 @@
         <v>8</v>
       </c>
       <c r="AK101">
-        <v>343.01</v>
+        <v>295.64</v>
       </c>
       <c r="AL101">
-        <v>70.050799999999995</v>
+        <v>86.633600000000001</v>
       </c>
       <c r="AM101">
-        <v>116301</v>
+        <v>76017</v>
       </c>
     </row>
     <row r="102" spans="1:39" x14ac:dyDescent="0.25">
@@ -17903,13 +17914,142 @@
         <v>8</v>
       </c>
       <c r="AK102">
-        <v>377.82</v>
+        <v>342.4</v>
       </c>
       <c r="AL102">
-        <v>72.574700000000007</v>
+        <v>68.635900000000007</v>
       </c>
       <c r="AM102">
-        <v>114055</v>
+        <v>15496</v>
+      </c>
+    </row>
+    <row r="103" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103">
+        <f>AVERAGE(B2:B102)</f>
+        <v>334.11752475247539</v>
+      </c>
+      <c r="C103">
+        <f t="shared" ref="C103:AM103" si="0">AVERAGE(C2:C102)</f>
+        <v>75.342827722772284</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="0"/>
+        <v>47613.217821782178</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="0"/>
+        <v>190.50069306930703</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="0"/>
+        <v>26.872412871287132</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="0"/>
+        <v>62375.643564356433</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="0"/>
+        <v>190.42019801980211</v>
+      </c>
+      <c r="M103">
+        <f t="shared" si="0"/>
+        <v>26.862848514851482</v>
+      </c>
+      <c r="N103">
+        <f t="shared" si="0"/>
+        <v>122509.40594059406</v>
+      </c>
+      <c r="P103">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="0"/>
+        <v>191.58673267326739</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="0"/>
+        <v>27.887105940594047</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="0"/>
+        <v>65221.257425742573</v>
+      </c>
+      <c r="U103">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="V103">
+        <f t="shared" si="0"/>
+        <v>192.10267326732668</v>
+      </c>
+      <c r="W103">
+        <f t="shared" si="0"/>
+        <v>27.94405148514852</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="0"/>
+        <v>67271.30693069307</v>
+      </c>
+      <c r="Z103">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AA103">
+        <f t="shared" si="0"/>
+        <v>272.78069306930684</v>
+      </c>
+      <c r="AB103">
+        <f t="shared" si="0"/>
+        <v>79.591994059405963</v>
+      </c>
+      <c r="AC103">
+        <f t="shared" si="0"/>
+        <v>47090.039603960395</v>
+      </c>
+      <c r="AE103">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AF103">
+        <f t="shared" si="0"/>
+        <v>288.3866336633663</v>
+      </c>
+      <c r="AG103">
+        <f t="shared" si="0"/>
+        <v>79.238709900990131</v>
+      </c>
+      <c r="AH103">
+        <f t="shared" si="0"/>
+        <v>48811.881188118808</v>
+      </c>
+      <c r="AJ103">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AK103">
+        <f t="shared" si="0"/>
+        <v>320.53544554455453</v>
+      </c>
+      <c r="AL103">
+        <f t="shared" si="0"/>
+        <v>74.86325346534656</v>
+      </c>
+      <c r="AM103">
+        <f t="shared" si="0"/>
+        <v>53513.950495049503</v>
       </c>
     </row>
   </sheetData>

--- a/ProcessSimulator/N=100 Graphs.xlsx
+++ b/ProcessSimulator/N=100 Graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\MST\Fall 2020\CS 3800\Project\Simulator\Process-Memory-Mangaement-Simulation\ProcessSimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D63F52-67BB-4D4F-B92C-DB8487B3D992}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE2B275-9A4F-441C-9B59-5E02EBB08FEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2070" yWindow="8565" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3333,7 +3333,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Times for All 100 Process (n) Lists on All Algorithms Where n=100 </a:t>
+              <a:t> Times for All 100 Process (n) Lists on All Algorithms Where n=100 and Short Execution Time </a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -6417,7 +6417,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7921,8 +7921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA73" workbookViewId="0">
-      <selection activeCell="AP93" sqref="AP93"/>
+    <sheetView tabSelected="1" topLeftCell="Q65" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1:AM103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ProcessSimulator/N=100 Graphs.xlsx
+++ b/ProcessSimulator/N=100 Graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\MST\Fall 2020\CS 3800\Project\Simulator\Process-Memory-Mangaement-Simulation\ProcessSimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE2B275-9A4F-441C-9B59-5E02EBB08FEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D0106E-8DC4-459D-A87D-0780FAC91EDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2070" yWindow="8565" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="6000" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3333,7 +3333,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Times for All 100 Process (n) Lists on All Algorithms Where n=100 and Short Execution Time </a:t>
+              <a:t> Times for All 100 Process (n) Lists on All Algorithms Where n=100 and Varying Execution Time </a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -6334,7 +6334,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Turn</a:t>
+                  <a:t>AVergae Normalized Turn</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
@@ -7921,8 +7921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q65" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1:AM103"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="A159" sqref="A159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
